--- a/datenRF4/SFU/i = 24,42 - Abtriebswelle 14 - Geber AV Y2/L3_24,42_14_AVY2.xlsx
+++ b/datenRF4/SFU/i = 24,42 - Abtriebswelle 14 - Geber AV Y2/L3_24,42_14_AVY2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 24^J42 - Abtriebswelle 14 - Geber AV Y2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{3D8B137A-5A5B-4299-A1D7-52F40809C658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{092B6F23-8D09-4D6A-8E92-F33EB0B37CDA}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{866BF88D-C05E-4884-BF71-5CC7F8CCDE18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -464,11 +458,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -711,9 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -763,6 +754,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,7 +824,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -876,7 +876,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1070,81 +1070,81 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DA643C-8A92-4996-85A3-3168850BCFB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="7" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="42.140625" customWidth="1"/>
-    <col min="10" max="10" width="51.5703125" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" customWidth="1"/>
-    <col min="18" max="18" width="23.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="1" max="4" width="22.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" customWidth="1"/>
+    <col min="6" max="7" width="22.7265625" customWidth="1"/>
+    <col min="9" max="9" width="42.1796875" customWidth="1"/>
+    <col min="10" max="10" width="51.54296875" customWidth="1"/>
+    <col min="11" max="11" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.81640625" customWidth="1"/>
+    <col min="18" max="18" width="23.7265625" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="55" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="50" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="51"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="20"/>
       <c r="H2" s="3"/>
       <c r="I2" s="9"/>
@@ -1159,7 +1159,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="22" t="s">
         <v>71</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="72.5">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="48" customHeight="1" thickBot="1">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1282,7 +1282,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="43.5">
       <c r="A6" s="34">
         <v>1</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="R7" s="12"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="R8" s="12"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1432,21 +1432,23 @@
       <c r="R9" s="12"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="29.5" thickBot="1">
       <c r="A10" s="40">
         <v>1</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42">
-        <v>1</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="43" t="s">
+      <c r="B10" s="61">
+        <v>3</v>
+      </c>
+      <c r="C10" s="41">
+        <v>1</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="41" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="31">
@@ -1465,7 +1467,7 @@
       <c r="R10" s="12"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="29">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1494,7 +1496,7 @@
       <c r="R11" s="12"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="29.5" thickBot="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1523,7 +1525,7 @@
       <c r="R12" s="12"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="43.5">
       <c r="A13" s="34">
         <v>1</v>
       </c>
@@ -1574,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="11">
         <v>5</v>
       </c>
@@ -1607,7 +1609,7 @@
       <c r="R14" s="12"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="11">
         <v>6</v>
       </c>
@@ -1640,7 +1642,7 @@
       <c r="R15" s="12"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1">
       <c r="A16" s="11">
         <v>7</v>
       </c>
@@ -1673,18 +1675,20 @@
       <c r="R16" s="12"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="29">
       <c r="A17" s="34">
         <v>1</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="59">
+        <v>3</v>
+      </c>
       <c r="C17" s="36">
         <v>1</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="36" t="s">
@@ -1706,11 +1710,13 @@
       <c r="R17" s="12"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="29.5" thickBot="1">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="60">
+        <v>3</v>
+      </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
@@ -1739,7 +1745,7 @@
       <c r="R18" s="12"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="43.5">
       <c r="A19" s="34">
         <v>1</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="11">
         <v>5</v>
       </c>
@@ -1823,7 +1829,7 @@
       <c r="R20" s="12"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="11">
         <v>6</v>
       </c>
@@ -1856,7 +1862,7 @@
       <c r="R21" s="12"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1">
       <c r="A22" s="11">
         <v>7</v>
       </c>
@@ -1889,18 +1895,20 @@
       <c r="R22" s="12"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="29">
       <c r="A23" s="34">
         <v>1</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="59">
+        <v>3</v>
+      </c>
       <c r="C23" s="36">
         <v>1</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="43" t="s">
         <v>84</v>
       </c>
       <c r="F23" s="36" t="s">
@@ -1922,11 +1930,13 @@
       <c r="R23" s="12"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="29.5" thickBot="1">
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="60">
+        <v>3</v>
+      </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
@@ -1955,7 +1965,7 @@
       <c r="R24" s="12"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="44" thickBot="1">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1984,7 +1994,7 @@
       <c r="R25" s="12"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="43.5">
       <c r="A26" s="34">
         <v>1</v>
       </c>
@@ -2037,7 +2047,7 @@
       </c>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="11">
         <v>5</v>
       </c>
@@ -2070,7 +2080,7 @@
       <c r="R27" s="12"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="11">
         <v>6</v>
       </c>
@@ -2103,7 +2113,7 @@
       <c r="R28" s="12"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" thickBot="1">
       <c r="A29" s="11">
         <v>7</v>
       </c>
@@ -2136,18 +2146,20 @@
       <c r="R29" s="12"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="29">
       <c r="A30" s="34">
         <v>1</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="59">
+        <v>3</v>
+      </c>
       <c r="C30" s="36">
         <v>1</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="43" t="s">
         <v>84</v>
       </c>
       <c r="F30" s="36" t="s">
@@ -2169,11 +2181,13 @@
       <c r="R30" s="12"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="29.5" thickBot="1">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="60">
+        <v>3</v>
+      </c>
       <c r="C31" s="2">
         <v>4</v>
       </c>
@@ -2202,7 +2216,7 @@
       <c r="R31" s="12"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="29.5" thickBot="1">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2231,7 +2245,7 @@
       <c r="R32" s="12"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="43.5">
       <c r="A33" s="34">
         <v>1</v>
       </c>
@@ -2282,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="11">
         <v>5</v>
       </c>
@@ -2315,7 +2329,7 @@
       <c r="R34" s="12"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="11">
         <v>6</v>
       </c>
@@ -2348,7 +2362,7 @@
       <c r="R35" s="12"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" thickBot="1">
       <c r="A36" s="11">
         <v>7</v>
       </c>
@@ -2381,18 +2395,20 @@
       <c r="R36" s="12"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29">
       <c r="A37" s="34">
         <v>1</v>
       </c>
-      <c r="B37" s="35"/>
+      <c r="B37" s="59">
+        <v>3</v>
+      </c>
       <c r="C37" s="36">
         <v>1</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="43" t="s">
         <v>84</v>
       </c>
       <c r="F37" s="36" t="s">
@@ -2414,11 +2430,13 @@
       <c r="R37" s="12"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="29.5" thickBot="1">
       <c r="A38" s="1">
         <v>2</v>
       </c>
-      <c r="B38" s="38"/>
+      <c r="B38" s="60">
+        <v>3</v>
+      </c>
       <c r="C38" s="2">
         <v>4</v>
       </c>
@@ -2447,7 +2465,7 @@
       <c r="R38" s="12"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" thickBot="1">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2476,7 +2494,7 @@
       <c r="R39" s="12"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="43.5">
       <c r="A40" s="34">
         <v>1</v>
       </c>
@@ -2527,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="11">
         <v>5</v>
       </c>
@@ -2560,7 +2578,7 @@
       <c r="R41" s="12"/>
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="11">
         <v>6</v>
       </c>
@@ -2593,7 +2611,7 @@
       <c r="R42" s="12"/>
       <c r="S42" s="14"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="11">
         <v>7</v>
       </c>
@@ -2626,7 +2644,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="14"/>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" thickBot="1">
       <c r="A44" s="11">
         <v>8</v>
       </c>
@@ -2639,7 +2657,7 @@
       <c r="D44" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="48" t="s">
         <v>87</v>
       </c>
       <c r="F44" s="21" t="s">
@@ -2659,21 +2677,23 @@
       <c r="R44" s="12"/>
       <c r="S44" s="14"/>
     </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" thickBot="1">
       <c r="A45" s="40">
         <v>1</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="42">
-        <v>1</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="43" t="s">
+      <c r="B45" s="61">
+        <v>3</v>
+      </c>
+      <c r="C45" s="41">
+        <v>1</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="41" t="s">
         <v>90</v>
       </c>
       <c r="G45" s="31">
@@ -2692,7 +2712,7 @@
       <c r="R45" s="12"/>
       <c r="S45" s="14"/>
     </row>
-    <row r="46" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="44" thickBot="1">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -2721,7 +2741,7 @@
       <c r="R46" s="12"/>
       <c r="S46" s="14"/>
     </row>
-    <row r="47" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="43.5">
       <c r="A47" s="34">
         <v>1</v>
       </c>
@@ -2772,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="11">
         <v>5</v>
       </c>
@@ -2805,7 +2825,7 @@
       <c r="R48" s="12"/>
       <c r="S48" s="14"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="11">
         <v>6</v>
       </c>
@@ -2838,7 +2858,7 @@
       <c r="R49" s="12"/>
       <c r="S49" s="14"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="11">
         <v>7</v>
       </c>
@@ -2871,7 +2891,7 @@
       <c r="R50" s="12"/>
       <c r="S50" s="14"/>
     </row>
-    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" thickBot="1">
       <c r="A51" s="11">
         <v>8</v>
       </c>
@@ -2884,7 +2904,7 @@
       <c r="D51" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="48" t="s">
         <v>87</v>
       </c>
       <c r="F51" s="21" t="s">
@@ -2904,18 +2924,20 @@
       <c r="R51" s="12"/>
       <c r="S51" s="14"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="34">
         <v>1</v>
       </c>
-      <c r="B52" s="35"/>
+      <c r="B52" s="59">
+        <v>3</v>
+      </c>
       <c r="C52" s="36">
         <v>1</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="43" t="s">
         <v>89</v>
       </c>
       <c r="F52" s="36" t="s">
@@ -2937,11 +2959,13 @@
       <c r="R52" s="12"/>
       <c r="S52" s="14"/>
     </row>
-    <row r="53" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="29.5" thickBot="1">
       <c r="A53" s="1">
         <v>2</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="60">
+        <v>3</v>
+      </c>
       <c r="C53" s="2">
         <v>3</v>
       </c>
@@ -2970,7 +2994,7 @@
       <c r="R53" s="12"/>
       <c r="S53" s="14"/>
     </row>
-    <row r="54" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="44" thickBot="1">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2999,7 +3023,7 @@
       <c r="R54" s="12"/>
       <c r="S54" s="14"/>
     </row>
-    <row r="55" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="43.5">
       <c r="A55" s="34">
         <v>1</v>
       </c>
@@ -3050,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="11">
         <v>5</v>
       </c>
@@ -3083,7 +3107,7 @@
       <c r="R56" s="12"/>
       <c r="S56" s="14"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="11">
         <v>6</v>
       </c>
@@ -3116,7 +3140,7 @@
       <c r="R57" s="12"/>
       <c r="S57" s="14"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="11">
         <v>7</v>
       </c>
@@ -3149,7 +3173,7 @@
       <c r="R58" s="12"/>
       <c r="S58" s="14"/>
     </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" thickBot="1">
       <c r="A59" s="11">
         <v>8</v>
       </c>
@@ -3162,7 +3186,7 @@
       <c r="D59" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="48" t="s">
         <v>87</v>
       </c>
       <c r="F59" s="21" t="s">
@@ -3182,18 +3206,20 @@
       <c r="R59" s="12"/>
       <c r="S59" s="14"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19">
       <c r="A60" s="34">
         <v>1</v>
       </c>
-      <c r="B60" s="35"/>
+      <c r="B60" s="59">
+        <v>3</v>
+      </c>
       <c r="C60" s="36">
         <v>1</v>
       </c>
       <c r="D60" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="43" t="s">
         <v>89</v>
       </c>
       <c r="F60" s="36" t="s">
@@ -3215,11 +3241,13 @@
       <c r="R60" s="12"/>
       <c r="S60" s="14"/>
     </row>
-    <row r="61" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="29.5" thickBot="1">
       <c r="A61" s="1">
         <v>2</v>
       </c>
-      <c r="B61" s="38"/>
+      <c r="B61" s="60">
+        <v>3</v>
+      </c>
       <c r="C61" s="2">
         <v>3</v>
       </c>
@@ -3248,7 +3276,7 @@
       <c r="R61" s="12"/>
       <c r="S61" s="14"/>
     </row>
-    <row r="62" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="44" thickBot="1">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3277,7 +3305,7 @@
       <c r="R62" s="12"/>
       <c r="S62" s="14"/>
     </row>
-    <row r="63" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="58">
       <c r="A63" s="34">
         <v>1</v>
       </c>
@@ -3330,7 +3358,7 @@
       </c>
       <c r="S63" s="14"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="11">
         <v>5</v>
       </c>
@@ -3363,7 +3391,7 @@
       <c r="R64" s="12"/>
       <c r="S64" s="14"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="11">
         <v>6</v>
       </c>
@@ -3396,7 +3424,7 @@
       <c r="R65" s="12"/>
       <c r="S65" s="14"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="11">
         <v>7</v>
       </c>
@@ -3429,7 +3457,7 @@
       <c r="R66" s="12"/>
       <c r="S66" s="14"/>
     </row>
-    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" thickBot="1">
       <c r="A67" s="11">
         <v>8</v>
       </c>
@@ -3442,7 +3470,7 @@
       <c r="D67" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="49" t="s">
+      <c r="E67" s="48" t="s">
         <v>87</v>
       </c>
       <c r="F67" s="21" t="s">
@@ -3462,18 +3490,20 @@
       <c r="R67" s="12"/>
       <c r="S67" s="14"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="34">
         <v>1</v>
       </c>
-      <c r="B68" s="35"/>
+      <c r="B68" s="59">
+        <v>3</v>
+      </c>
       <c r="C68" s="36">
         <v>1</v>
       </c>
       <c r="D68" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="44" t="s">
+      <c r="E68" s="43" t="s">
         <v>89</v>
       </c>
       <c r="F68" s="36" t="s">
@@ -3492,11 +3522,13 @@
       <c r="R68" s="12"/>
       <c r="S68" s="14"/>
     </row>
-    <row r="69" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="29.5" thickBot="1">
       <c r="A69" s="1">
         <v>2</v>
       </c>
-      <c r="B69" s="38"/>
+      <c r="B69" s="60">
+        <v>3</v>
+      </c>
       <c r="C69" s="2">
         <v>3</v>
       </c>
@@ -3522,7 +3554,7 @@
       <c r="R69" s="12"/>
       <c r="S69" s="14"/>
     </row>
-    <row r="70" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="44" thickBot="1">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -3548,7 +3580,7 @@
       <c r="R70" s="12"/>
       <c r="S70" s="14"/>
     </row>
-    <row r="71" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="43.5">
       <c r="A71" s="34">
         <v>1</v>
       </c>
@@ -3594,7 +3626,7 @@
       </c>
       <c r="S71" s="14"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="11">
         <v>5</v>
       </c>
@@ -3624,7 +3656,7 @@
       <c r="R72" s="12"/>
       <c r="S72" s="14"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="11">
         <v>6</v>
       </c>
@@ -3654,7 +3686,7 @@
       <c r="R73" s="12"/>
       <c r="S73" s="14"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="11">
         <v>7</v>
       </c>
@@ -3684,7 +3716,7 @@
       <c r="R74" s="12"/>
       <c r="S74" s="14"/>
     </row>
-    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" thickBot="1">
       <c r="A75" s="11">
         <v>8</v>
       </c>
@@ -3697,7 +3729,7 @@
       <c r="D75" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="49" t="s">
+      <c r="E75" s="48" t="s">
         <v>87</v>
       </c>
       <c r="F75" s="21" t="s">
@@ -3714,18 +3746,20 @@
       <c r="R75" s="12"/>
       <c r="S75" s="14"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19">
       <c r="A76" s="34">
         <v>1</v>
       </c>
-      <c r="B76" s="35"/>
+      <c r="B76" s="59">
+        <v>3</v>
+      </c>
       <c r="C76" s="36">
         <v>1</v>
       </c>
       <c r="D76" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E76" s="44" t="s">
+      <c r="E76" s="43" t="s">
         <v>89</v>
       </c>
       <c r="F76" s="36" t="s">
@@ -3744,11 +3778,13 @@
       <c r="R76" s="12"/>
       <c r="S76" s="14"/>
     </row>
-    <row r="77" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="29.5" thickBot="1">
       <c r="A77" s="1">
         <v>2</v>
       </c>
-      <c r="B77" s="38"/>
+      <c r="B77" s="60">
+        <v>3</v>
+      </c>
       <c r="C77" s="2">
         <v>3</v>
       </c>
@@ -3774,7 +3810,7 @@
       <c r="R77" s="12"/>
       <c r="S77" s="14"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3800,7 +3836,7 @@
       <c r="R78" s="12"/>
       <c r="S78" s="14"/>
     </row>
-    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="29">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3826,7 +3862,7 @@
       <c r="R79" s="12"/>
       <c r="S79" s="14"/>
     </row>
-    <row r="80" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="29.5" thickBot="1">
       <c r="A80" s="11"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -3852,7 +3888,7 @@
       <c r="R80" s="12"/>
       <c r="S80" s="14"/>
     </row>
-    <row r="81" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="44" thickBot="1">
       <c r="A81" s="34">
         <v>1</v>
       </c>
@@ -3900,23 +3936,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="15" thickBot="1">
       <c r="A82" s="40">
         <v>4</v>
       </c>
-      <c r="B82" s="46">
+      <c r="B82" s="45">
         <v>2</v>
       </c>
-      <c r="C82" s="42">
-        <v>1</v>
-      </c>
-      <c r="D82" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E82" s="48" t="s">
+      <c r="C82" s="41">
+        <v>1</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="F82" s="47" t="s">
+      <c r="F82" s="46" t="s">
         <v>93</v>
       </c>
       <c r="G82" s="32">
@@ -3932,11 +3968,11 @@
       <c r="R82" s="12"/>
       <c r="S82" s="14"/>
     </row>
-    <row r="83" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="15" thickBot="1">
       <c r="A83" s="1">
         <v>5</v>
       </c>
-      <c r="B83" s="45">
+      <c r="B83" s="44">
         <v>1</v>
       </c>
       <c r="C83" s="2">
@@ -3962,7 +3998,7 @@
       <c r="R83" s="12"/>
       <c r="S83" s="14"/>
     </row>
-    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="29">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -3988,7 +4024,7 @@
       <c r="R84" s="12"/>
       <c r="S84" s="14"/>
     </row>
-    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="29">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4014,7 +4050,7 @@
       <c r="R85" s="12"/>
       <c r="S85" s="14"/>
     </row>
-    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="29">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -4040,7 +4076,7 @@
       <c r="R86" s="12"/>
       <c r="S86" s="14"/>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="29">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -4066,7 +4102,7 @@
       <c r="R87" s="12"/>
       <c r="S87" s="14"/>
     </row>
-    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="29">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -4092,7 +4128,7 @@
       <c r="R88" s="12"/>
       <c r="S88" s="14"/>
     </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="29">
       <c r="A89" s="11"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -4118,7 +4154,7 @@
       <c r="R89" s="12"/>
       <c r="S89" s="14"/>
     </row>
-    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="29">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -4144,7 +4180,7 @@
       <c r="R90" s="12"/>
       <c r="S90" s="14"/>
     </row>
-    <row r="91" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="29">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -4170,7 +4206,7 @@
       <c r="R91" s="12"/>
       <c r="S91" s="14"/>
     </row>
-    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="29">
       <c r="A92" s="11"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -4196,7 +4232,7 @@
       <c r="R92" s="12"/>
       <c r="S92" s="14"/>
     </row>
-    <row r="93" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="43.5">
       <c r="A93" s="11"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -4222,7 +4258,7 @@
       <c r="R93" s="12"/>
       <c r="S93" s="14"/>
     </row>
-    <row r="94" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="44" thickBot="1">
       <c r="A94" s="11"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -4248,7 +4284,7 @@
       <c r="R94" s="12"/>
       <c r="S94" s="14"/>
     </row>
-    <row r="95" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="44" thickBot="1">
       <c r="A95" s="34">
         <v>1</v>
       </c>
@@ -4296,23 +4332,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="15" thickBot="1">
       <c r="A96" s="40">
         <v>4</v>
       </c>
-      <c r="B96" s="46">
+      <c r="B96" s="45">
         <v>2</v>
       </c>
-      <c r="C96" s="42">
-        <v>1</v>
-      </c>
-      <c r="D96" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E96" s="48" t="s">
+      <c r="C96" s="41">
+        <v>1</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="F96" s="47" t="s">
+      <c r="F96" s="46" t="s">
         <v>93</v>
       </c>
       <c r="G96" s="32">
@@ -4328,11 +4364,11 @@
       <c r="R96" s="12"/>
       <c r="S96" s="14"/>
     </row>
-    <row r="97" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="15" thickBot="1">
       <c r="A97" s="1">
         <v>5</v>
       </c>
-      <c r="B97" s="45">
+      <c r="B97" s="44">
         <v>1</v>
       </c>
       <c r="C97" s="2">
@@ -4358,7 +4394,7 @@
       <c r="R97" s="12"/>
       <c r="S97" s="14"/>
     </row>
-    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="43.5">
       <c r="A98" s="11"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -4384,7 +4420,7 @@
       <c r="R98" s="12"/>
       <c r="S98" s="14"/>
     </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="43.5">
       <c r="A99" s="11"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -4410,7 +4446,7 @@
       <c r="R99" s="12"/>
       <c r="S99" s="14"/>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="43.5">
       <c r="A100" s="11"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -4436,7 +4472,7 @@
       <c r="R100" s="12"/>
       <c r="S100" s="14"/>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="43.5">
       <c r="A101" s="11"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -4462,7 +4498,7 @@
       <c r="R101" s="12"/>
       <c r="S101" s="14"/>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="43.5">
       <c r="A102" s="11"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -4488,7 +4524,7 @@
       <c r="R102" s="12"/>
       <c r="S102" s="14"/>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="43.5">
       <c r="A103" s="11"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -4514,7 +4550,7 @@
       <c r="R103" s="12"/>
       <c r="S103" s="14"/>
     </row>
-    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="43.5">
       <c r="A104" s="11"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -4540,7 +4576,7 @@
       <c r="R104" s="12"/>
       <c r="S104" s="14"/>
     </row>
-    <row r="105" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="43.5">
       <c r="A105" s="11"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -4566,7 +4602,7 @@
       <c r="R105" s="12"/>
       <c r="S105" s="14"/>
     </row>
-    <row r="106" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="43.5">
       <c r="A106" s="11"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4592,7 +4628,7 @@
       <c r="R106" s="12"/>
       <c r="S106" s="14"/>
     </row>
-    <row r="107" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="44" thickBot="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
